--- a/biology/Biochimie/Pieter_Cullis/Pieter_Cullis.xlsx
+++ b/biology/Biochimie/Pieter_Cullis/Pieter_Cullis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pieter Rutter Cullis OC est un physicien et biochimiste canadien connu pour ses contributions au domaine des nanoparticules lipidiques [1]. Les nanoparticules lipidiques sont essentielles aux vaccins à ARNm actuels en tant que système de délivrance. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pieter Rutter Cullis OC est un physicien et biochimiste canadien connu pour ses contributions au domaine des nanoparticules lipidiques . Les nanoparticules lipidiques sont essentielles aux vaccins à ARNm actuels en tant que système de délivrance. 
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cullis obtient un doctorat en physique de l'Université de la Colombie-Britannique, puis part à l'Université d'Oxford pour travailler comme boursier postdoctoral en biochimie travaillant sur la RMN. Pendant son séjour à Oxford, il commence à travailler sur les lipides [2]. Dans les années 1980, il crée son propre laboratoire à l'Université de la Colombie-Britannique et commence à créer des bicouches lipidiques et fonde Inex Pharmaceuticals, où ils recherchent des moyens d'encapsuler des médicaments et des acides nucléiques dans les particules lipidiques [2]. Il travaille sur le développement de Patisiran, un médicament qui utilise de petits ARN interférents délivrés via des nanoparticules lipidiques et est approuvé par la FDA en 2018.
-En 1986, il reçoit le Prix Ayerst de la Société canadienne de biochimie [3]. En 2004, il est élu membre de la Société royale du Canada.
-En 2021, il reçoit le Prix Prince-Mahidol [4]. En 2022, il est fait Officier de l'Ordre du Canada, reçoit le Grand Prix du Prix VinFuture [5], le Prix Gairdner [6], le Prix du Gouverneur général pour l'innovation [7] et le Prix Tang en sciences biopharmaceutiques [8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cullis obtient un doctorat en physique de l'Université de la Colombie-Britannique, puis part à l'Université d'Oxford pour travailler comme boursier postdoctoral en biochimie travaillant sur la RMN. Pendant son séjour à Oxford, il commence à travailler sur les lipides . Dans les années 1980, il crée son propre laboratoire à l'Université de la Colombie-Britannique et commence à créer des bicouches lipidiques et fonde Inex Pharmaceuticals, où ils recherchent des moyens d'encapsuler des médicaments et des acides nucléiques dans les particules lipidiques . Il travaille sur le développement de Patisiran, un médicament qui utilise de petits ARN interférents délivrés via des nanoparticules lipidiques et est approuvé par la FDA en 2018.
+En 1986, il reçoit le Prix Ayerst de la Société canadienne de biochimie . En 2004, il est élu membre de la Société royale du Canada.
+En 2021, il reçoit le Prix Prince-Mahidol . En 2022, il est fait Officier de l'Ordre du Canada, reçoit le Grand Prix du Prix VinFuture , le Prix Gairdner , le Prix du Gouverneur général pour l'innovation  et le Prix Tang en sciences biopharmaceutiques .
 </t>
         </is>
       </c>
